--- a/dicionario.xlsx
+++ b/dicionario.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="65">
   <si>
     <t>Nombre de la variable</t>
   </si>
@@ -50,9 +50,6 @@
     <t>comentario</t>
   </si>
   <si>
-    <t>usuario</t>
-  </si>
-  <si>
     <t xml:space="preserve">Estado </t>
   </si>
   <si>
@@ -71,21 +68,9 @@
     <t>TABLA USUARIOS</t>
   </si>
   <si>
-    <t>activo</t>
-  </si>
-  <si>
-    <t>12345upt</t>
-  </si>
-  <si>
     <t>Tabla labolatorio</t>
   </si>
   <si>
-    <t>Nombre del salon</t>
-  </si>
-  <si>
-    <t>Horario</t>
-  </si>
-  <si>
     <t>Estado_salon</t>
   </si>
   <si>
@@ -98,7 +83,142 @@
     <t>varchar</t>
   </si>
   <si>
-    <t>Numero de equipos</t>
+    <t>usuario o ID</t>
+  </si>
+  <si>
+    <t>si</t>
+  </si>
+  <si>
+    <t>Nombre del salon o id</t>
+  </si>
+  <si>
+    <t>Tabla Materias</t>
+  </si>
+  <si>
+    <t>Nombre o id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Color </t>
+  </si>
+  <si>
+    <t>TABLA Administradores</t>
+  </si>
+  <si>
+    <t>Administradores o ID</t>
+  </si>
+  <si>
+    <t>Tabla Software</t>
+  </si>
+  <si>
+    <t>id</t>
+  </si>
+  <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>Nombre</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Tabla Horarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salon </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Profesor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Materia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoraInicio </t>
+  </si>
+  <si>
+    <t xml:space="preserve">HoraFin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Periodo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Año </t>
+  </si>
+  <si>
+    <t>Tabla Rondines</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Id </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fecha </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Comentario </t>
+  </si>
+  <si>
+    <t xml:space="preserve">datetime </t>
+  </si>
+  <si>
+    <t xml:space="preserve">int </t>
+  </si>
+  <si>
+    <t>Tabla Mensajes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Equipo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Software </t>
+  </si>
+  <si>
+    <t>INT</t>
+  </si>
+  <si>
+    <t>Tabla SoftwarePorEquipo</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Int</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Asunto </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuerpo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">TipoDeUsuarioAlQueSeDirige </t>
+  </si>
+  <si>
+    <t>Tabla Equipos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Teclado </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mouse </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monitor </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Procesador </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Almacenamiento </t>
+  </si>
+  <si>
+    <t>Tabla Observaciones</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Usuario </t>
   </si>
 </sst>
 </file>
@@ -114,7 +234,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -130,6 +250,48 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF16C4C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDA7070"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -198,12 +360,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -215,7 +377,49 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -224,6 +428,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFDA7070"/>
+      <color rgb="FF16C4C0"/>
+      <color rgb="FF87F1F1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -498,21 +709,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:Q89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J86" sqref="J86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1"/>
+    <col min="1" max="1" width="27.7109375" customWidth="1"/>
     <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="10" max="10" width="28.28515625" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -521,269 +734,1544 @@
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
       <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="J1" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
+      <c r="O1" s="4"/>
+      <c r="P1" s="4"/>
+      <c r="Q1" s="5"/>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="J2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1">
+        <v>15</v>
+      </c>
+      <c r="F3" s="1"/>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1"/>
+      <c r="J3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N3" s="1">
+        <v>15</v>
+      </c>
+      <c r="O3" s="1"/>
+      <c r="P3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="1"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" s="1">
+        <v>50</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" s="1"/>
+      <c r="J4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N4" s="1">
+        <v>50</v>
+      </c>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="1"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="1">
+        <v>20</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5" s="1"/>
+      <c r="J5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N5" s="1">
+        <v>20</v>
+      </c>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="1"/>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1">
+        <v>15</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6" s="1"/>
+      <c r="J6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="1">
+        <v>15</v>
+      </c>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="1"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" s="1">
+        <v>15</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="2">
+        <v>10</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="2">
+        <v>15</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A18" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" s="7"/>
+      <c r="C18" s="7"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G19" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B20" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="2">
-        <v>13</v>
-      </c>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
+      <c r="D20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E20" s="8">
+        <v>80</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="8"/>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E21" s="8">
+        <v>10</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="8"/>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A25" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+      <c r="F25" s="9"/>
+      <c r="G25" s="9"/>
+      <c r="H25" s="9"/>
+      <c r="J25" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="9"/>
+      <c r="L25" s="9"/>
+      <c r="M25" s="9"/>
+      <c r="N25" s="9"/>
+      <c r="O25" s="9"/>
+      <c r="P25" s="9"/>
+      <c r="Q25" s="9"/>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="N26" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q26" s="10" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A27" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="2"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="D27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H27" s="10"/>
+      <c r="J27" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M27" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="N27" s="10">
+        <v>8</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q27" s="10"/>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A28" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E28" s="10">
+        <v>50</v>
+      </c>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" s="10"/>
+      <c r="J28" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="M28" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="E4" s="2">
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q28" s="10"/>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A29" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="E29" s="10">
+        <v>10</v>
+      </c>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="10"/>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="11"/>
+      <c r="E33" s="11"/>
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A34" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D34" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F34" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="G34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" s="12" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A35" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E35" s="12">
+        <v>20</v>
+      </c>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H35" s="12"/>
+    </row>
+    <row r="36" spans="1:8" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E36" s="12">
+        <v>10</v>
+      </c>
+      <c r="F36" s="12"/>
+      <c r="G36" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="12"/>
+    </row>
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="12"/>
+      <c r="B37" s="12"/>
+      <c r="C37" s="12"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="12"/>
+      <c r="F37" s="12"/>
+      <c r="G37" s="12"/>
+      <c r="H37" s="12"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A38" s="12" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D38" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="E38" s="12">
+        <v>15</v>
+      </c>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="12"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A39" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D39" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="12">
+        <v>80</v>
+      </c>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="12"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A40" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
+      <c r="B40" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D40" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="12">
+        <v>10</v>
+      </c>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="12"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A41" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D41" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E41" s="12">
+        <v>10</v>
+      </c>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H41" s="12"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A42" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="B42" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D42" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="12">
+        <v>30</v>
+      </c>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H42" s="12"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A43" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D43" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H43" s="12"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A44" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D44" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E44" s="12">
+        <v>15</v>
+      </c>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H44" s="12"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A48" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B48" s="15"/>
+      <c r="C48" s="15"/>
+      <c r="D48" s="15"/>
+      <c r="E48" s="15"/>
+      <c r="F48" s="15"/>
+      <c r="G48" s="15"/>
+      <c r="H48" s="15"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="D49" s="16" t="s">
+        <v>3</v>
+      </c>
+      <c r="E49" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="F49" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" s="16" t="s">
+        <v>6</v>
+      </c>
+      <c r="H49" s="16" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="C50" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E50" s="16"/>
+      <c r="F50" s="16"/>
+      <c r="G50" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H50" s="16"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E51" s="16"/>
+      <c r="F51" s="16"/>
+      <c r="G51" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H51" s="16"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D52" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E52" s="16">
+        <v>15</v>
+      </c>
+      <c r="F52" s="16"/>
+      <c r="G52" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H52" s="16"/>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B53" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D53" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="E53" s="16">
         <v>10</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
+      <c r="F53" s="16"/>
+      <c r="G53" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H53" s="16"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B54" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="D54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E54" s="16">
+        <v>350</v>
+      </c>
+      <c r="F54" s="16"/>
+      <c r="G54" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H54" s="16"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="19"/>
+      <c r="C58" s="19"/>
+      <c r="D58" s="19"/>
+      <c r="E58" s="19"/>
+      <c r="F58" s="19"/>
+      <c r="G58" s="19"/>
+      <c r="H58" s="19"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="20" t="s">
+        <v>2</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E59" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="G59" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="H59" s="20" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="20" t="s">
+        <v>52</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D60" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E60" s="20"/>
+      <c r="F60" s="20"/>
+      <c r="G60" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H60" s="20"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C61" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D61" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E61" s="20">
+        <v>15</v>
+      </c>
+      <c r="F61" s="20"/>
+      <c r="G61" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H61" s="20"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="B62" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C62" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D62" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E62" s="20">
+        <v>50</v>
+      </c>
+      <c r="F62" s="20"/>
+      <c r="G62" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H62" s="20"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="20" t="s">
+        <v>55</v>
+      </c>
+      <c r="B63" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E63" s="20">
+        <v>200</v>
+      </c>
+      <c r="F63" s="20"/>
+      <c r="G63" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H63" s="20"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D64" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E64" s="20">
+        <v>15</v>
+      </c>
+      <c r="F64" s="20"/>
+      <c r="G64" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H64" s="20"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="20" t="s">
+        <v>8</v>
+      </c>
+      <c r="B65" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="E65" s="20">
+        <v>15</v>
+      </c>
+      <c r="F65" s="20"/>
+      <c r="G65" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H65" s="20"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B69" s="17"/>
+      <c r="C69" s="17"/>
+      <c r="D69" s="17"/>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
+      <c r="H69" s="17"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B70" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D70" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="E70" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F70" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="G70" s="18" t="s">
+        <v>6</v>
+      </c>
+      <c r="H70" s="18" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B71" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="D71" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E71" s="18">
+        <v>8</v>
+      </c>
+      <c r="F71" s="18"/>
+      <c r="G71" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H71" s="18"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B72" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D72" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="E72" s="18">
         <v>10</v>
       </c>
-      <c r="F5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="2" t="s">
+      <c r="F72" s="18"/>
+      <c r="G72" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H72" s="18"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B73" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D73" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E73" s="18">
+        <v>15</v>
+      </c>
+      <c r="F73" s="18"/>
+      <c r="G73" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H73" s="18"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="18" t="s">
+        <v>58</v>
+      </c>
+      <c r="B74" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D74" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E74" s="18">
+        <v>40</v>
+      </c>
+      <c r="F74" s="18"/>
+      <c r="G74" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H74" s="18"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="B75" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D75" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E75" s="18">
+        <v>40</v>
+      </c>
+      <c r="F75" s="18"/>
+      <c r="G75" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H75" s="18"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="B76" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E76" s="18">
+        <v>40</v>
+      </c>
+      <c r="F76" s="18"/>
+      <c r="G76" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H76" s="18"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="B77" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D77" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E77" s="18">
+        <v>40</v>
+      </c>
+      <c r="F77" s="18"/>
+      <c r="G77" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H77" s="18"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="18" t="s">
+        <v>62</v>
+      </c>
+      <c r="B78" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="D78" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="E78" s="18">
+        <v>40</v>
+      </c>
+      <c r="F78" s="18"/>
+      <c r="G78" s="18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H78" s="18"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A82" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="B82" s="13"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="13"/>
+      <c r="F82" s="13"/>
+      <c r="G82" s="13"/>
+      <c r="H82" s="13"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A83" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D83" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G83" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="H83" s="14" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A84" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C84" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="D84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E84" s="14"/>
+      <c r="F84" s="14"/>
+      <c r="G84" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H84" s="14"/>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A85" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B85" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E85" s="14"/>
+      <c r="F85" s="14"/>
+      <c r="G85" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H85" s="14"/>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D86" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="E86" s="14">
+        <v>15</v>
+      </c>
+      <c r="F86" s="14"/>
+      <c r="G86" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H86" s="14"/>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="B87" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D87" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E6" s="2">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
+      <c r="E87" s="14">
+        <v>8</v>
+      </c>
+      <c r="F87" s="14"/>
+      <c r="G87" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H87" s="14"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A88" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="B88" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E88" s="14">
+        <v>200</v>
+      </c>
+      <c r="F88" s="14"/>
+      <c r="G88" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="14"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" s="14" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="D89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E89" s="14">
         <v>15</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="2">
-        <v>15</v>
-      </c>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D14" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="H16" s="6"/>
+      <c r="F89" s="14"/>
+      <c r="G89" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H89" s="14"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="11">
+    <mergeCell ref="A69:H69"/>
+    <mergeCell ref="A82:H82"/>
+    <mergeCell ref="A33:H33"/>
+    <mergeCell ref="A48:H48"/>
+    <mergeCell ref="A58:H58"/>
+    <mergeCell ref="J25:Q25"/>
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="A11:H11"/>
+    <mergeCell ref="A18:H18"/>
+    <mergeCell ref="J1:Q1"/>
+    <mergeCell ref="A25:H25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
